--- a/biology/Zoologie/Bhutaniella_hillyardi/Bhutaniella_hillyardi.xlsx
+++ b/biology/Zoologie/Bhutaniella_hillyardi/Bhutaniella_hillyardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhutaniella hillyardi est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutaniella hillyardi est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Népal[1]. Elle se rencontre dans le district de Sankhuwasabha entre 2 050 et 2 150 m d'altitude dans la vallée d'Arun.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Népal. Elle se rencontre dans le district de Sankhuwasabha entre 2 050 et 2 150 m d'altitude dans la vallée d'Arun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,0 mm de long sur 3,6 mm et l'abdomen 4,1 mm de long sur 2,6 mm et la carapace de la femelle paratype mesure 4,5 mm de long sur 4,1 mm et l'abdomen 6,7 mm de long sur 5,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,0 mm de long sur 3,6 mm et l'abdomen 4,1 mm de long sur 2,6 mm et la carapace de la femelle paratype mesure 4,5 mm de long sur 4,1 mm et l'abdomen 6,7 mm de long sur 5,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Hillyard[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Hillyard.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jäger, 2000 : Two new heteropodine genera from southern continental Asia (Araneae: Sparassidae). Acta Arachnologica, Tokyo, vol. 49, no 1, p. 61-71 (texte intégral).</t>
         </is>
